--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Non_preemtive_priority\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B74174-2DD4-4BAF-A719-DF150D6A04D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA361E12-EDF3-4451-9357-DAD58D719C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="8385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>P1</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>P20</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Turnaround</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,14 +163,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,22 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -501,8 +520,14 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -530,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -572,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -600,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -628,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -642,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -684,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -698,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -712,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -726,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -740,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -754,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -768,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -789,15 +814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE32D7F8BC9434FB37E4E45380C1D53" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54684c21b13f2a70916b131df1908de4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7153f70d-125b-45ae-a080-607957ba818f" xmlns:ns3="79eab682-894b-4d64-ba1f-457248d54272" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8161572c8ef4cb4c1c1ad76191139081" ns2:_="" ns3:_="">
     <xsd:import namespace="7153f70d-125b-45ae-a080-607957ba818f"/>
@@ -972,6 +988,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -985,14 +1010,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,6 +1028,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
   <ds:schemaRefs>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA361E12-EDF3-4451-9357-DAD58D719C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F426F-310E-4ED8-A862-155FC6991A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="8385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3660" yWindow="4725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +814,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE32D7F8BC9434FB37E4E45380C1D53" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54684c21b13f2a70916b131df1908de4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7153f70d-125b-45ae-a080-607957ba818f" xmlns:ns3="79eab682-894b-4d64-ba1f-457248d54272" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8161572c8ef4cb4c1c1ad76191139081" ns2:_="" ns3:_="">
     <xsd:import namespace="7153f70d-125b-45ae-a080-607957ba818f"/>
@@ -988,15 +997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1010,6 +1010,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1028,14 +1036,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
   <ds:schemaRefs>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F426F-310E-4ED8-A862-155FC6991A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF557C4-F541-4E3D-B3DC-BBCB03A4192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3660" yWindow="4725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -605,7 +605,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>12</v>
+        <v>555</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -759,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>555</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bu\my course\CE313OS\65\assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BA771-5326-48A9-9857-98A6F6CDA3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="3375" yWindow="1200" windowWidth="20985" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,12 +102,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +194,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -471,20 +472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD69"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -582,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -691,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -708,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -788,6 +789,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE32D7F8BC9434FB37E4E45380C1D53" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54684c21b13f2a70916b131df1908de4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7153f70d-125b-45ae-a080-607957ba818f" xmlns:ns3="79eab682-894b-4d64-ba1f-457248d54272" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8161572c8ef4cb4c1c1ad76191139081" ns2:_="" ns3:_="">
     <xsd:import namespace="7153f70d-125b-45ae-a080-607957ba818f"/>
@@ -962,15 +972,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -984,13 +985,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
+    <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
+    <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>